--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -38,13 +38,13 @@
     <t>Raya</t>
   </si>
   <si>
-    <t>2222RR@</t>
+    <t>2222Raya</t>
   </si>
   <si>
     <t>Retu</t>
   </si>
   <si>
-    <t>12345RR@</t>
+    <t>12345Retu</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
